--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -31,13 +31,13 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
     <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
         <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,7 +448,7 @@
         <v>45992</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C4" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,7 +476,7 @@
         <v>45993</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,10 +490,10 @@
         <v>45992</v>
       </c>
       <c r="C6" s="2">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,10 +518,10 @@
         <v>45993</v>
       </c>
       <c r="C8" s="2">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,7 +535,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +560,10 @@
         <v>45992</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,7 +574,7 @@
         <v>45993</v>
       </c>
       <c r="C12" s="2">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -588,10 +588,10 @@
         <v>45993</v>
       </c>
       <c r="C13" s="2">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -476,7 +476,7 @@
         <v>45992</v>
       </c>
       <c r="C5" s="2">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -490,10 +490,10 @@
         <v>45993</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C7" s="2">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,7 +518,7 @@
         <v>45992</v>
       </c>
       <c r="C8" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -529,13 +529,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C10" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -557,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="2">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -585,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C13" s="2">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Resort</t>
   </si>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="C2" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C3" s="2">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -459,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -487,13 +487,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45993</v>
+        <v>45999</v>
       </c>
       <c r="C6" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C7" s="2">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -515,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -529,13 +529,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="C9" s="2">
-        <v>66</v>
+        <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C10" s="2">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -557,41 +557,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C11" s="2">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45993</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C13" s="2">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl</t>
+  </si>
+  <si>
+    <t>Snowbowl Passes</t>
+  </si>
+  <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,7 +437,7 @@
         <v>45999</v>
       </c>
       <c r="C2" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +451,10 @@
         <v>45999</v>
       </c>
       <c r="C3" s="2">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +465,10 @@
         <v>45999</v>
       </c>
       <c r="C4" s="2">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +479,10 @@
         <v>45999</v>
       </c>
       <c r="C5" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +493,10 @@
         <v>45999</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -501,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C7" s="2">
-        <v>21</v>
+        <v>718</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -515,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C8" s="2">
-        <v>82</v>
+        <v>1059</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -529,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C9" s="2">
-        <v>322</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C10" s="2">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +563,122 @@
         <v>46000</v>
       </c>
       <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>570</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>918</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
-  </si>
-  <si>
-    <t>Snowbowl Passes</t>
-  </si>
-  <si>
-    <t>Snowbowl Comp Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>Purgatory Passes</t>
+  </si>
+  <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -448,13 +445,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -479,10 +476,10 @@
         <v>45999</v>
       </c>
       <c r="C5" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,7 +490,7 @@
         <v>45999</v>
       </c>
       <c r="C6" s="2">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C7" s="2">
-        <v>718</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,10 +518,10 @@
         <v>45999</v>
       </c>
       <c r="C8" s="2">
-        <v>1059</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,10 +532,10 @@
         <v>45999</v>
       </c>
       <c r="C9" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -560,125 +557,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>570</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>918</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2">
-        <v>46000</v>
-      </c>
-      <c r="C19" s="2">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Resort</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
-  </si>
-  <si>
-    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
     <t>Purgatory Tickets</t>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,7 +448,7 @@
         <v>46000</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -459,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C4" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -473,13 +473,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C5" s="2">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +490,10 @@
         <v>45999</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C7" s="2">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C8" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,10 +532,10 @@
         <v>45999</v>
       </c>
       <c r="C9" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C10" s="2">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -557,13 +557,97 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>398</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
         <v>45999</v>
       </c>
-      <c r="C11" s="2">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C14" s="2">
+        <v>115</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>322</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>101</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -431,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C2" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C3" s="2">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,7 +465,7 @@
         <v>46001</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -473,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>1059</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -487,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C6" s="2">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -504,7 +507,7 @@
         <v>45999</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -515,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C8" s="2">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -529,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C9" s="2">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,10 +549,10 @@
         <v>46001</v>
       </c>
       <c r="C10" s="2">
-        <v>25</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -557,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -571,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C12" s="2">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -585,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C13" s="2">
-        <v>134</v>
+        <v>570</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -599,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C14" s="2">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -613,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C15" s="2">
-        <v>322</v>
+        <v>718</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -627,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C16" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -641,13 +644,181 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C17" s="2">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>725</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>913</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,16 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -400,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -431,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -445,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C3" s="2">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -459,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>134</v>
+        <v>570</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -473,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C5" s="2">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -487,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C6" s="2">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -501,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C7" s="2">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -515,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C8" s="2">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -529,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>1005</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C10" s="2">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,7 +563,7 @@
         <v>46002</v>
       </c>
       <c r="C11" s="2">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -571,10 +574,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C12" s="2">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -585,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C13" s="2">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -599,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C14" s="2">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -613,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -627,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C16" s="2">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -641,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C17" s="2">
-        <v>322</v>
+        <v>725</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -655,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>46002</v>
+        <v>45999</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>1058</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,10 +675,10 @@
         <v>46000</v>
       </c>
       <c r="C19" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -683,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -697,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>1083</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -711,13 +714,237 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>718</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>913</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
         <v>46002</v>
       </c>
-      <c r="C22" s="2">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C29" s="2">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>80</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C33" s="2">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>79</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C38" s="2">
+        <v>741</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +437,7 @@
         <v>45999</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
+        <v>358</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>45999</v>
       </c>
       <c r="C3" s="2">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -465,10 +465,10 @@
         <v>46000</v>
       </c>
       <c r="C4" s="2">
-        <v>570</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45999</v>
+        <v>46003</v>
       </c>
       <c r="C6" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="C9" s="2">
-        <v>1005</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -560,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -574,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C12" s="2">
-        <v>91</v>
+        <v>398</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="C14" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="C15" s="2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C16" s="2">
-        <v>97</v>
+        <v>447</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="C17" s="2">
-        <v>725</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45999</v>
+        <v>46004</v>
       </c>
       <c r="C18" s="2">
-        <v>1058</v>
+        <v>1130</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="C19" s="2">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C21" s="2">
-        <v>1083</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45999</v>
+        <v>46002</v>
       </c>
       <c r="C22" s="2">
-        <v>718</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45999</v>
+        <v>46003</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="C24" s="2">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="C25" s="2">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C26" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -784,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C28" s="2">
-        <v>913</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +815,10 @@
         <v>46002</v>
       </c>
       <c r="C29" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,10 +826,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -854,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="C32" s="2">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>46002</v>
+        <v>46005</v>
       </c>
       <c r="C33" s="2">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C35" s="2">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>46001</v>
+        <v>45999</v>
       </c>
       <c r="C36" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C37" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,9 +941,163 @@
         <v>46002</v>
       </c>
       <c r="C38" s="2">
-        <v>741</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C40" s="2">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C41" s="2">
+        <v>105</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C42" s="2">
+        <v>925</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C43" s="2">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C44" s="2">
+        <v>322</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C46" s="2">
+        <v>538</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C47" s="2">
+        <v>132</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C49" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/reports/For The Week Ending (Actual)_Visits.xlsx
+++ b/reports/For The Week Ending (Actual)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +437,7 @@
         <v>45999</v>
       </c>
       <c r="C2" s="2">
-        <v>358</v>
+        <v>1058</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C4" s="2">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,7 +479,7 @@
         <v>46002</v>
       </c>
       <c r="C5" s="2">
-        <v>321</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -493,7 +493,7 @@
         <v>46003</v>
       </c>
       <c r="C6" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C8" s="2">
-        <v>19</v>
+        <v>1548</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>46005</v>
+        <v>46000</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,10 +563,10 @@
         <v>46000</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,10 +577,10 @@
         <v>46001</v>
       </c>
       <c r="C12" s="2">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,10 +591,10 @@
         <v>46001</v>
       </c>
       <c r="C13" s="2">
-        <v>134</v>
+        <v>725</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,10 +605,10 @@
         <v>46003</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,10 +633,10 @@
         <v>46004</v>
       </c>
       <c r="C16" s="2">
-        <v>447</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>847</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="C18" s="2">
-        <v>1130</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>46004</v>
+        <v>45999</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C20" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C21" s="2">
-        <v>101</v>
+        <v>570</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C22" s="2">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,7 +731,7 @@
         <v>46003</v>
       </c>
       <c r="C23" s="2">
-        <v>27</v>
+        <v>997</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>7</v>
@@ -745,10 +745,10 @@
         <v>46004</v>
       </c>
       <c r="C24" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="C25" s="2">
-        <v>332</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +773,10 @@
         <v>46000</v>
       </c>
       <c r="C26" s="2">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>913</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="C29" s="2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>7</v>
@@ -829,7 +829,7 @@
         <v>46003</v>
       </c>
       <c r="C30" s="2">
-        <v>94</v>
+        <v>1104</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,10 +857,10 @@
         <v>46004</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,10 +871,10 @@
         <v>46005</v>
       </c>
       <c r="C33" s="2">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>46005</v>
+        <v>46000</v>
       </c>
       <c r="C34" s="2">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>46005</v>
+        <v>46001</v>
       </c>
       <c r="C35" s="2">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -910,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C36" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C37" s="2">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="C38" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,10 +955,10 @@
         <v>46004</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,10 +969,10 @@
         <v>46004</v>
       </c>
       <c r="C40" s="2">
-        <v>99</v>
+        <v>1591</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,10 +983,10 @@
         <v>46005</v>
       </c>
       <c r="C41" s="2">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="C42" s="2">
-        <v>925</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C43" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C44" s="2">
-        <v>322</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,10 +1039,10 @@
         <v>46002</v>
       </c>
       <c r="C45" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="C46" s="2">
-        <v>538</v>
+        <v>741</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="C47" s="2">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,276 @@
         <v>46005</v>
       </c>
       <c r="C49" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C50" s="2">
+        <v>993</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>718</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C55" s="2">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45999</v>
+      </c>
+      <c r="C56" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>46001</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C60" s="2">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>46002</v>
+      </c>
+      <c r="C62" s="2">
+        <v>91</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>46003</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>46004</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>46005</v>
+      </c>
+      <c r="C68" s="2">
+        <v>187</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
